--- a/out/BPI12/results/no_lap/nolap_32.xlsx
+++ b/out/BPI12/results/no_lap/nolap_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/no_lap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB42DE2-3618-AF48-B29B-71EA9FC5021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555587A-DE28-9347-A707-871124450B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,8 +853,8 @@
         <v>4319</v>
       </c>
       <c r="AB2" s="30">
-        <f>B2/AA2</f>
-        <v>1</v>
+        <f>1-B2/AA2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -938,8 +938,8 @@
         <v>4319</v>
       </c>
       <c r="AB3" s="30">
-        <f>C3/AA3</f>
-        <v>1</v>
+        <f>1-C3/AA3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -2820,99 +2820,99 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <f>SUM(B2:B25)</f>
+        <f t="shared" ref="B27:Y27" si="1">SUM(B2:B25)</f>
         <v>4319</v>
       </c>
       <c r="C27">
-        <f>SUM(C2:C25)</f>
+        <f t="shared" si="1"/>
         <v>4319</v>
       </c>
       <c r="D27">
-        <f>SUM(D2:D25)</f>
+        <f t="shared" si="1"/>
         <v>4319</v>
       </c>
       <c r="E27">
-        <f>SUM(E2:E25)</f>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="F27">
-        <f>SUM(F2:F25)</f>
+        <f t="shared" si="1"/>
         <v>787</v>
       </c>
       <c r="G27">
-        <f>SUM(G2:G25)</f>
+        <f t="shared" si="1"/>
         <v>1922</v>
       </c>
       <c r="H27">
-        <f>SUM(H2:H25)</f>
+        <f t="shared" si="1"/>
         <v>8495</v>
       </c>
       <c r="I27">
-        <f>SUM(I2:I25)</f>
+        <f t="shared" si="1"/>
         <v>654</v>
       </c>
       <c r="J27">
-        <f>SUM(J2:J25)</f>
+        <f t="shared" si="1"/>
         <v>7298</v>
       </c>
       <c r="K27">
-        <f>SUM(K2:K25)</f>
+        <f t="shared" si="1"/>
         <v>7233</v>
       </c>
       <c r="L27">
-        <f>SUM(L2:L25)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="M27">
-        <f>SUM(M2:M25)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="N27">
-        <f>SUM(N2:N25)</f>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="O27">
-        <f>SUM(O2:O25)</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="P27">
-        <f>SUM(P2:P25)</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="Q27">
-        <f>SUM(Q2:Q25)</f>
+        <f t="shared" si="1"/>
         <v>1677</v>
       </c>
       <c r="R27">
-        <f>SUM(R2:R25)</f>
+        <f t="shared" si="1"/>
         <v>1126</v>
       </c>
       <c r="S27">
-        <f>SUM(S2:S25)</f>
+        <f t="shared" si="1"/>
         <v>423</v>
       </c>
       <c r="T27">
-        <f>SUM(T2:T25)</f>
+        <f t="shared" si="1"/>
         <v>2595</v>
       </c>
       <c r="U27">
-        <f>SUM(U2:U25)</f>
+        <f t="shared" si="1"/>
         <v>7979</v>
       </c>
       <c r="V27">
-        <f>SUM(V2:V25)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="W27">
-        <f>SUM(W2:W25)</f>
+        <f t="shared" si="1"/>
         <v>2648</v>
       </c>
       <c r="X27">
-        <f>SUM(X2:X25)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Y27">
-        <f>SUM(Y2:Y25)</f>
+        <f t="shared" si="1"/>
         <v>741</v>
       </c>
       <c r="AA27">
@@ -3135,11 +3135,11 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:C31" si="1">2*B29*B30/(B29+B30)</f>
+        <f t="shared" ref="B31:C31" si="2">2*B29*B30/(B29+B30)</f>
         <v>1</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D31">
@@ -3147,11 +3147,11 @@
         <v>0.69082905355832724</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:Y31" si="2">2*E29*E30/(E29+E30)</f>
+        <f t="shared" ref="E31:Y31" si="3">2*E29*E30/(E29+E30)</f>
         <v>2.8473244968090328E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2338072669826227E-2</v>
       </c>
       <c r="G31">
@@ -3163,71 +3163,71 @@
         <v>0.37376988871516603</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13786279683377309</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54080515297906606</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56950800915331801</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7681895093062612E-3</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7879948914431672E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4183796856106408E-2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5476718403547672E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.076142131979695E-3</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26095192990764854</v>
       </c>
       <c r="R31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12032085561497327</v>
       </c>
       <c r="S31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2587412587412587E-2</v>
       </c>
       <c r="T31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12003530450132391</v>
       </c>
       <c r="U31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33309752400202119</v>
       </c>
       <c r="V31" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35419747001807134</v>
       </c>
       <c r="X31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19920948616600792</v>
       </c>
       <c r="AA31">

--- a/out/BPI12/results/no_lap/nolap_32.xlsx
+++ b/out/BPI12/results/no_lap/nolap_32.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/no_lap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555587A-DE28-9347-A707-871124450B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87295BEA-BDD6-7E40-8F5F-09A39066D412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="156" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <f>B2/AA2</f>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <f>B2/B27</f>

--- a/out/BPI12/results/no_lap/nolap_32.xlsx
+++ b/out/BPI12/results/no_lap/nolap_32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/no_lap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87295BEA-BDD6-7E40-8F5F-09A39066D412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A32C8C-3575-4820-AD60-EEFFAA238AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>APREACCEPTED</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>APARTLYSUBMITTED</t>
+  </si>
+  <si>
+    <t>Somma</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Totale parziale</t>
+  </si>
+  <si>
+    <t>Conteggio</t>
+  </si>
+  <si>
+    <t>scartate</t>
   </si>
 </sst>
 </file>
@@ -676,23 +691,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="156" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.83203125" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" customWidth="1"/>
+    <col min="30" max="30" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
         <v>29</v>
       </c>
@@ -768,11 +784,14 @@
       <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
@@ -852,12 +871,15 @@
         <f>SUM(B2:Y2)</f>
         <v>4319</v>
       </c>
-      <c r="AB2" s="30">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="30">
         <f>1-B2/AA2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
@@ -937,12 +959,15 @@
         <f>SUM(B3:Y3)</f>
         <v>4319</v>
       </c>
-      <c r="AB3" s="30">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="30">
         <f>1-C3/AA3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,12 +1047,15 @@
         <f>SUM(B4:Y4)</f>
         <v>2496</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="24">
         <f>1-D4/AA4</f>
         <v>5.6891025641025661E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1107,12 +1135,15 @@
         <f t="shared" ref="AA5:AA25" si="0">SUM(B5:Y5)</f>
         <v>1727</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="24">
         <f>1-E5/AA5</f>
         <v>0.98320787492762018</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1192,12 +1223,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24">
         <f>1-F6/AA6</f>
         <v>0.97182506307821703</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1277,12 +1311,15 @@
         <f t="shared" si="0"/>
         <v>1688</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="24">
         <f>1-G7/AA7</f>
         <v>0.61078199052132698</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1362,12 +1399,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="24">
         <f>1-H8/AA8</f>
         <v>0.14550042052144663</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1447,12 +1487,15 @@
         <f t="shared" si="0"/>
         <v>2378</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="24">
         <f>1-I9/AA9</f>
         <v>0.91211101766190072</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1532,12 +1575,15 @@
         <f t="shared" si="0"/>
         <v>8227</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
         <f>1-J10/AA10</f>
         <v>0.48972894129087152</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1617,12 +1663,15 @@
         <f t="shared" si="0"/>
         <v>6751</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="24">
         <f>1-K11/AA11</f>
         <v>0.41016145756184264</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1702,12 +1751,15 @@
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="24">
         <f>1-L12/AA12</f>
         <v>0.99649122807017543</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1787,12 +1839,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24">
         <f>1-M13/AA13</f>
         <v>0.98979591836734693</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -1872,12 +1927,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB14" s="24">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="24">
         <f>1-N14/AA14</f>
         <v>0.98542274052478129</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -1957,12 +2015,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB15" s="24">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24">
         <f>1-O15/AA15</f>
         <v>0.97667638483965014</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2042,12 +2103,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="AB16" s="24">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="24">
         <f>1-P16/AA16</f>
         <v>0.99708454810495628</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -2127,12 +2191,15 @@
         <f t="shared" si="0"/>
         <v>2546</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="24">
         <f>1-Q17/AA17</f>
         <v>0.78358208955223885</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
@@ -2212,12 +2279,15 @@
         <f t="shared" si="0"/>
         <v>1118</v>
       </c>
-      <c r="AB18" s="24">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="24">
         <f>1-R18/AA18</f>
         <v>0.8792486583184258</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -2297,12 +2367,15 @@
         <f t="shared" si="0"/>
         <v>2437</v>
       </c>
-      <c r="AB19" s="24">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="24">
         <f>1-S19/AA19</f>
         <v>0.99261386951169472</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
@@ -2382,12 +2455,15 @@
         <f t="shared" si="0"/>
         <v>804</v>
       </c>
-      <c r="AB20" s="24">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="24">
         <f>1-T20/AA20</f>
         <v>0.74626865671641784</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2467,12 +2543,15 @@
         <f t="shared" si="0"/>
         <v>1916</v>
       </c>
-      <c r="AB21" s="24">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="24">
         <f>1-U21/AA21</f>
         <v>0.13987473903966596</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
@@ -2552,12 +2631,15 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="24">
         <f>1-V22/AA22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>19</v>
       </c>
@@ -2637,12 +2719,15 @@
         <f t="shared" si="0"/>
         <v>3439</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="24">
         <f>1-W23/AA23</f>
         <v>0.68653678394882234</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>20</v>
       </c>
@@ -2722,12 +2807,15 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="AB24" s="24">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="24">
         <f>1-X24/AA24</f>
         <v>0.95348837209302328</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
@@ -2807,15 +2895,18 @@
         <f t="shared" si="0"/>
         <v>4319</v>
       </c>
-      <c r="AB25" s="24">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="24">
         <f>1-Y25/AA25</f>
         <v>0.88330632090761751</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" s="27"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2919,8 +3010,12 @@
         <f>SUM(AA2:AA25)</f>
         <v>57464</v>
       </c>
+      <c r="AB27">
+        <f>SUM(AB2:AB25)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3025,7 +3120,7 @@
         <v>0.45849575386328834</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3130,7 +3225,7 @@
         <v>0.46800503204337374</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +3330,7 @@
         <v>0.46320159301010283</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3244,7 +3339,7 @@
         <v>0.42377001765833694</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
